--- a/Hybridframework/src/test/resources/testdata/td.xlsx
+++ b/Hybridframework/src/test/resources/testdata/td.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sathish SP\git\8ambatch\Hybridframework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60EE6F5-1581-4071-B224-F9BCC84B9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF85677-3FDD-46B7-9E3D-AED84D42E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>sachu611@gmail.com</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>cwwece</t>
+  </si>
+  <si>
+    <t>cddsc</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>cdc</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>eftyhr</t>
+  </si>
+  <si>
+    <t>cwenclkewnc</t>
   </si>
 </sst>
 </file>
@@ -372,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +407,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,28 +415,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>321456</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>651324</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Hybridframework/src/test/resources/testdata/td.xlsx
+++ b/Hybridframework/src/test/resources/testdata/td.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sathish SP\git\8ambatch\Hybridframework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sathish SP\git\Framework_8AMbatch1\Hybridframework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF85677-3FDD-46B7-9E3D-AED84D42E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C275B569-F488-4440-9198-7C59DE7E1E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Money" sheetId="2" r:id="rId2"/>
+    <sheet name="Recharge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -64,13 +66,85 @@
   </si>
   <si>
     <t>cwenclkewnc</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>det</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>Rate of Interest</t>
+  </si>
+  <si>
+    <t>Period of Years</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Maturity Value</t>
+  </si>
+  <si>
+    <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>sathish@rediffmail.com</t>
+  </si>
+  <si>
+    <t>Br439476#</t>
+  </si>
+  <si>
+    <t>Vanitha</t>
+  </si>
+  <si>
+    <t>Abhinav</t>
+  </si>
+  <si>
+    <t>abhinav2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshitha</t>
+  </si>
+  <si>
+    <t>lakshitha2014@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +156,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +192,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,6 +512,15 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -422,6 +529,15 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -435,6 +551,9 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,4 +577,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E448D-34FA-4968-8AA5-F76A97AEDD1F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>75000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>84000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A46B73-4B7C-4138-9F61-9A41ECE4F1DD}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7">
+        <v>9894118040</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>9790111306</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9840896600</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9894121614</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{20AAB883-681A-48BB-A2EB-D02AB655A9B2}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{6D2A245A-CD70-40D3-934F-398F61A76CA2}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{B2D46F9A-6C61-4449-AFE2-F480E92C7EF5}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{E395D615-5A11-4AAF-9CC1-A6DE56773FB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>